--- a/Doc/처리.xlsx
+++ b/Doc/처리.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\LogisticManager\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B85215B4-4ECA-45BE-A6C5-B6B38F72FE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF3BF9B-39F6-4B9E-928D-4E62733C85E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="1050" windowWidth="22965" windowHeight="14190" xr2:uid="{EE3BA8C5-5D65-411B-9077-C7B700993028}"/>
+    <workbookView xWindow="1440" yWindow="1755" windowWidth="20130" windowHeight="13200" xr2:uid="{EE3BA8C5-5D65-411B-9077-C7B700993028}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>ProcessInvoiceManagement</t>
   </si>
@@ -46,6 +46,46 @@
   </si>
   <si>
     <t>별표송장 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessSeoulFrozenManagement</t>
+  </si>
+  <si>
+    <t>서울냉동 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp_SeoulProcessF</t>
+  </si>
+  <si>
+    <t>ProcessInvoiceMessageData</t>
+  </si>
+  <si>
+    <t>송장출력 메세지 처리</t>
+  </si>
+  <si>
+    <t>0.관리자파일/송장출력_메세지.xlsx</t>
+  </si>
+  <si>
+    <t>송장출력_메세지</t>
+  </si>
+  <si>
+    <t>코드내에서 직접 테이블 명령을 사용했음. 변경해야함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>송장출력관리 처리</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -54,92 +94,54 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>관리자파일</t>
+      <t>관리자파일/별표송장.xlsx</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>별표송장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.xlsx</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>송장출력관리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>처리</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessSeoulFrozenManagement</t>
-  </si>
-  <si>
-    <t>서울냉동 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp_SeoulProcessF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로시저로 처리 해야함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessMergePacking1</t>
+  </si>
+  <si>
+    <t>합포장 최적화 처리</t>
+  </si>
+  <si>
+    <t>송장출력_특수출력_합포장변경</t>
+  </si>
+  <si>
+    <t>sp_MergePacking</t>
+  </si>
+  <si>
+    <t>0.관리자파일/합포장변경.xlsx</t>
+  </si>
+  <si>
+    <t>Dropbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로시저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,23 +159,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFE394DC"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFEFB080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,17 +214,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -545,50 +564,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8626F134-A1C1-44F8-B7CD-71BD86173382}">
-  <dimension ref="A2:C5"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="31.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.5" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
